--- a/config/case.xlsx
+++ b/config/case.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
   <si>
     <t>模块名称</t>
   </si>
@@ -127,6 +127,14 @@
   </si>
   <si>
     <t>test_08</t>
+  </si>
+  <si>
+    <t>预期步骤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get_element</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -501,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -513,9 +521,10 @@
     <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
     <col min="6" max="6" width="14.125" customWidth="1"/>
+    <col min="7" max="8" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -538,10 +547,13 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -558,8 +570,14 @@
         <v>28</v>
       </c>
       <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -576,8 +594,11 @@
         <v>29</v>
       </c>
       <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -594,8 +615,11 @@
         <v>30</v>
       </c>
       <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -610,7 +634,7 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -625,7 +649,7 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -639,7 +663,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -653,7 +677,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -666,7 +690,7 @@
       <c r="G9" t="s">
         <v>21</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>22</v>
       </c>
     </row>

--- a/config/case.xlsx
+++ b/config/case.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="36">
   <si>
     <t>模块名称</t>
   </si>
@@ -134,6 +134,14 @@
   </si>
   <si>
     <t>get_element</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否运行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yes</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -509,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -521,10 +529,10 @@
     <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
     <col min="6" max="6" width="14.125" customWidth="1"/>
-    <col min="7" max="8" width="11.625" customWidth="1"/>
+    <col min="7" max="9" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -550,10 +558,13 @@
         <v>32</v>
       </c>
       <c r="I1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -576,8 +587,11 @@
       <c r="H2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -597,8 +611,14 @@
       <c r="G3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -618,8 +638,14 @@
       <c r="G4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -633,8 +659,11 @@
         <v>12</v>
       </c>
       <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -648,8 +677,11 @@
         <v>26</v>
       </c>
       <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -663,7 +695,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -677,7 +709,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -690,7 +722,7 @@
       <c r="G9" t="s">
         <v>21</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>22</v>
       </c>
     </row>

--- a/config/case.xlsx
+++ b/config/case.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="37">
   <si>
     <t>模块名称</t>
   </si>
@@ -142,6 +142,10 @@
   </si>
   <si>
     <t>yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -520,7 +524,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -658,7 +662,9 @@
       <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="I5" t="s">
         <v>35</v>
       </c>
